--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N2">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q2">
-        <v>3.185524015128001</v>
+        <v>0.23931014142</v>
       </c>
       <c r="R2">
-        <v>19.113144090768</v>
+        <v>0.95724056568</v>
       </c>
       <c r="S2">
-        <v>0.03192461458046126</v>
+        <v>0.002006917547118668</v>
       </c>
       <c r="T2">
-        <v>0.02377638465777991</v>
+        <v>0.001017764479295168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q3">
-        <v>14.1726707256</v>
+        <v>0.3854224109166667</v>
       </c>
       <c r="R3">
-        <v>127.5540365304</v>
+        <v>2.3125344655</v>
       </c>
       <c r="S3">
-        <v>0.1420353600669325</v>
+        <v>0.003232253321700619</v>
       </c>
       <c r="T3">
-        <v>0.1586747749505109</v>
+        <v>0.002458750203988468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N4">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q4">
-        <v>24.500255551008</v>
+        <v>0.46803571171</v>
       </c>
       <c r="R4">
-        <v>220.502299959072</v>
+        <v>2.80821427026</v>
       </c>
       <c r="S4">
-        <v>0.2455361227459804</v>
+        <v>0.003925070107498887</v>
       </c>
       <c r="T4">
-        <v>0.2743006319030685</v>
+        <v>0.002985770596224267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H5">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N5">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q5">
-        <v>28.20558324528</v>
+        <v>0.8574273891400001</v>
       </c>
       <c r="R5">
-        <v>169.23349947168</v>
+        <v>3.42970955656</v>
       </c>
       <c r="S5">
-        <v>0.2826700944166317</v>
+        <v>0.007190610738159884</v>
       </c>
       <c r="T5">
-        <v>0.210523227435114</v>
+        <v>0.003646561466486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H6">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N6">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q6">
-        <v>4.355265709488</v>
+        <v>0.5335656237333333</v>
       </c>
       <c r="R6">
-        <v>39.197391385392</v>
+        <v>3.2013937424</v>
       </c>
       <c r="S6">
-        <v>0.04364750619069392</v>
+        <v>0.004474621119087479</v>
       </c>
       <c r="T6">
-        <v>0.0487608030753448</v>
+        <v>0.003403809817585356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>0.125615</v>
+      </c>
+      <c r="H7">
+        <v>0.25123</v>
+      </c>
+      <c r="I7">
+        <v>0.02647478672532295</v>
+      </c>
+      <c r="J7">
+        <v>0.01780700335556722</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.358931000000001</v>
+      </c>
+      <c r="N7">
+        <v>16.076793</v>
+      </c>
+      <c r="O7">
+        <v>0.213233592788784</v>
+      </c>
+      <c r="P7">
+        <v>0.2411605538696867</v>
+      </c>
+      <c r="Q7">
+        <v>0.6731621175650001</v>
+      </c>
+      <c r="R7">
+        <v>4.038972705390001</v>
+      </c>
+      <c r="S7">
+        <v>0.005645313891757419</v>
+      </c>
+      <c r="T7">
+        <v>0.00429434679198796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4.619088000000001</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>13.857264</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.490996</v>
-      </c>
-      <c r="N7">
-        <v>16.472988</v>
-      </c>
-      <c r="O7">
-        <v>0.2541863019993003</v>
-      </c>
-      <c r="P7">
-        <v>0.2839641779781819</v>
-      </c>
-      <c r="Q7">
-        <v>25.363393731648</v>
-      </c>
-      <c r="R7">
-        <v>228.270543584832</v>
-      </c>
-      <c r="S7">
-        <v>0.2541863019993003</v>
-      </c>
-      <c r="T7">
-        <v>0.2839641779781819</v>
+      <c r="I8">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J8">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.905108</v>
+      </c>
+      <c r="N8">
+        <v>3.810216</v>
+      </c>
+      <c r="O8">
+        <v>0.07580486173280727</v>
+      </c>
+      <c r="P8">
+        <v>0.05715529216076502</v>
+      </c>
+      <c r="Q8">
+        <v>8.799861501504001</v>
+      </c>
+      <c r="R8">
+        <v>52.79916900902401</v>
+      </c>
+      <c r="S8">
+        <v>0.07379794418568861</v>
+      </c>
+      <c r="T8">
+        <v>0.05613752768146986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H9">
+        <v>13.857264</v>
+      </c>
+      <c r="I9">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J9">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.068283333333333</v>
+      </c>
+      <c r="N9">
+        <v>9.20485</v>
+      </c>
+      <c r="O9">
+        <v>0.1220879833796353</v>
+      </c>
+      <c r="P9">
+        <v>0.1380777076800943</v>
+      </c>
+      <c r="Q9">
+        <v>14.1726707256</v>
+      </c>
+      <c r="R9">
+        <v>127.5540365304</v>
+      </c>
+      <c r="S9">
+        <v>0.1188557300579347</v>
+      </c>
+      <c r="T9">
+        <v>0.1356189574761058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.857264</v>
+      </c>
+      <c r="I10">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J10">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.725954</v>
+      </c>
+      <c r="N10">
+        <v>11.177862</v>
+      </c>
+      <c r="O10">
+        <v>0.148256911310435</v>
+      </c>
+      <c r="P10">
+        <v>0.1676739503331867</v>
+      </c>
+      <c r="Q10">
+        <v>17.210509409952</v>
+      </c>
+      <c r="R10">
+        <v>154.894584689568</v>
+      </c>
+      <c r="S10">
+        <v>0.1443318412029361</v>
+      </c>
+      <c r="T10">
+        <v>0.1646881797369624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.857264</v>
+      </c>
+      <c r="I11">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J11">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.825836</v>
+      </c>
+      <c r="N11">
+        <v>13.651672</v>
+      </c>
+      <c r="O11">
+        <v>0.2716022158275637</v>
+      </c>
+      <c r="P11">
+        <v>0.2047824327132465</v>
+      </c>
+      <c r="Q11">
+        <v>31.529137157568</v>
+      </c>
+      <c r="R11">
+        <v>189.174822945408</v>
+      </c>
+      <c r="S11">
+        <v>0.2644116050894039</v>
+      </c>
+      <c r="T11">
+        <v>0.2011358712467606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.857264</v>
+      </c>
+      <c r="I12">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J12">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.247626666666666</v>
+      </c>
+      <c r="N12">
+        <v>12.74288</v>
+      </c>
+      <c r="O12">
+        <v>0.1690144349607748</v>
+      </c>
+      <c r="P12">
+        <v>0.1911500632430207</v>
+      </c>
+      <c r="Q12">
+        <v>19.62016136448</v>
+      </c>
+      <c r="R12">
+        <v>176.58145228032</v>
+      </c>
+      <c r="S12">
+        <v>0.1645398138416873</v>
+      </c>
+      <c r="T12">
+        <v>0.1877462534254354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.857264</v>
+      </c>
+      <c r="I13">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J13">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.358931000000001</v>
+      </c>
+      <c r="N13">
+        <v>16.076793</v>
+      </c>
+      <c r="O13">
+        <v>0.213233592788784</v>
+      </c>
+      <c r="P13">
+        <v>0.2411605538696867</v>
+      </c>
+      <c r="Q13">
+        <v>24.75337387492801</v>
+      </c>
+      <c r="R13">
+        <v>222.780364874352</v>
+      </c>
+      <c r="S13">
+        <v>0.2075882788970266</v>
+      </c>
+      <c r="T13">
+        <v>0.2368662070776987</v>
       </c>
     </row>
   </sheetData>
